--- a/TestCases/Automation_Demo/Creation of new Order in CXChoice Application.xlsx
+++ b/TestCases/Automation_Demo/Creation of new Order in CXChoice Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Framework\TestCases\Automation_Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\GitRepository\Hybrid_Automation\TestCases\Automation_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524BA8C-524F-409D-A4CB-7E6210002242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22465FA9-97A5-4261-965B-7952E7070C53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -997,7 +997,7 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1436,7 +1436,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">

--- a/TestCases/Automation_Demo/Creation of new Order in CXChoice Application.xlsx
+++ b/TestCases/Automation_Demo/Creation of new Order in CXChoice Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\GitRepository\Hybrid_Automation\TestCases\Automation_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22465FA9-97A5-4261-965B-7952E7070C53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB751BE6-4E4F-4A0E-9D0F-00918D830223}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -996,7 +996,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -1436,7 +1436,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="8">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
